--- a/其他/資料庫_中文.xlsx
+++ b/其他/資料庫_中文.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WtfahaUser\UniversityCollege\1061\Android行動裝置軟體設計\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WtfahaUser\UniversityCollege\github\1061_SurpriseU\其他\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>account</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>maxPeople</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changePage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -729,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -745,7 +741,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -756,232 +752,214 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>72</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="32.4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>59</v>
+      <c r="T6" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>34</v>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="V8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="Y8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -989,13 +967,13 @@
         <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,42 +981,54 @@
         <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="Y11" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="O14" s="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
